--- a/Lab8_ATM_Interface/2018_12_19_18_51.xlsx
+++ b/Lab8_ATM_Interface/2018_12_19_18_51.xlsx
@@ -160,103 +160,103 @@
       </x:c>
       <x:c r="C3" s="1" t="inlineStr">
         <x:is>
+          <x:t xml:space="preserve">NoValidChoice</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D3" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E3" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">'{0}' is no valid choice</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F3" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G3" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Das Zeichen '{0}' steht nicht zur Auswahl!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H3" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I3" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Le caractère '{0}' n'est pas disponible!</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A4" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SWPLE_Lab8_ATM_Interface</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B4" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C4" s="1" t="inlineStr">
+        <x:is>
           <x:t xml:space="preserve">ToExit</x:t>
         </x:is>
       </x:c>
-      <x:c r="D3" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E3" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} to exit; </x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F3" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G3" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} zum Verlassen; </x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H3" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I3" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} à quitter;</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A4" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">SWPLE_Lab8_ATM_Interface</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B4" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">strings</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C4" s="1" t="inlineStr">
+      <x:c r="D4" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E4" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">'{0}' to exit; </x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F4" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G4" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">'{0}' zum Verlassen; </x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H4" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I4" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">'{0}' à quitter; </x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A5" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SWPLE_Lab8_ATM_Interface</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B5" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C5" s="1" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">ToSwitchLanguages</x:t>
         </x:is>
       </x:c>
-      <x:c r="D4" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E4" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} to toggle language; </x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F4" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G4" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} zum Umschalten der Sprache; </x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H4" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I4" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} pour changer de langue</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A5" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">SWPLE_Lab8_ATM_Interface</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B5" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">strings</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C5" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">NoValidChoice</x:t>
-        </x:is>
-      </x:c>
       <x:c r="D5" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve"/>
@@ -264,7 +264,7 @@
       </x:c>
       <x:c r="E5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">{0} is no valid choice</x:t>
+          <x:t xml:space="preserve">'{0}' to toggle language; </x:t>
         </x:is>
       </x:c>
       <x:c r="F5" t="inlineStr">
@@ -274,7 +274,7 @@
       </x:c>
       <x:c r="G5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Das Zeichen {0} steht nicht zur Auswahl!</x:t>
+          <x:t xml:space="preserve">'{0}' zum Umschalten der Sprache; </x:t>
         </x:is>
       </x:c>
       <x:c r="H5" t="inlineStr">
@@ -284,7 +284,7 @@
       </x:c>
       <x:c r="I5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Le caractère {0} n'est pas disponible!</x:t>
+          <x:t xml:space="preserve">'{0}' pour changer de langue; </x:t>
         </x:is>
       </x:c>
     </x:row>
